--- a/data/trans_orig/P1405-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3297</v>
+        <v>3332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18898</v>
+        <v>17806</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008087755626553476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003158083537873282</v>
+        <v>0.003192060597527564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01810264533414865</v>
+        <v>0.01705684271301597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>23102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15081</v>
+        <v>15171</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36784</v>
+        <v>36855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02067307851254384</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01349533063654701</v>
+        <v>0.01357632036514972</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03291713823484863</v>
+        <v>0.03298091453390595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -784,19 +784,19 @@
         <v>31545</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21712</v>
+        <v>21458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44917</v>
+        <v>45462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01459450616892191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01004517765000873</v>
+        <v>0.009927900225277933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0207814567416677</v>
+        <v>0.02103362944440637</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1035492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1025037</v>
+        <v>1026129</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1040638</v>
+        <v>1040603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9919122443734465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9818973546658514</v>
+        <v>0.982943157286984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9968419164621268</v>
+        <v>0.9968079394024724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1008</v>
@@ -834,19 +834,19 @@
         <v>1094368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1080686</v>
+        <v>1080615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1102389</v>
+        <v>1102299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9793269214874561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9670828617651515</v>
+        <v>0.9670190854660935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.986504669363453</v>
+        <v>0.9864236796348502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1979</v>
@@ -855,19 +855,19 @@
         <v>2129860</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2116488</v>
+        <v>2115943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2139693</v>
+        <v>2139947</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9854054938310781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9792185432583324</v>
+        <v>0.9789663705555937</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9899548223499912</v>
+        <v>0.9900720997747221</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3803</v>
+        <v>3857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17461</v>
+        <v>17562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008939098448761533</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003892258720770056</v>
+        <v>0.003947879499757511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01787046955952188</v>
+        <v>0.01797372103883486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -980,19 +980,19 @@
         <v>19628</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12307</v>
+        <v>12360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31164</v>
+        <v>31862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01796880032801397</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01126697517205447</v>
+        <v>0.01131510414104484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02853000988180615</v>
+        <v>0.02916897198121506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1001,19 +1001,19 @@
         <v>28362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19330</v>
+        <v>19137</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41704</v>
+        <v>41823</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01370540162690528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009340984533308509</v>
+        <v>0.009247413346496562</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02015276858828981</v>
+        <v>0.0202104125206955</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>968339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>959612</v>
+        <v>959511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973270</v>
+        <v>973216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9910609015512385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9821295304404781</v>
+        <v>0.9820262789611651</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99610774127923</v>
+        <v>0.9960521205002425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1001</v>
@@ -1051,19 +1051,19 @@
         <v>1072699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1061163</v>
+        <v>1060465</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1080020</v>
+        <v>1079967</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.982031199671986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9714699901181933</v>
+        <v>0.9708310280187851</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9887330248279455</v>
+        <v>0.9886848958589551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1917</v>
@@ -1072,19 +1072,19 @@
         <v>2041038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2027696</v>
+        <v>2027577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2050070</v>
+        <v>2050263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9862945983730947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9798472314117103</v>
+        <v>0.9797895874793044</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9906590154666917</v>
+        <v>0.9907525866535034</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>7432</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3157</v>
+        <v>3194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14265</v>
+        <v>14894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008397111016330346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003566575821753322</v>
+        <v>0.003608466430150547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01611674101449485</v>
+        <v>0.01682774565437737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1197,19 +1197,19 @@
         <v>13361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6766</v>
+        <v>6928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24123</v>
+        <v>23045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01525629380998173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007725482344579078</v>
+        <v>0.007910320479070363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02754434416882509</v>
+        <v>0.02631284053570897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1218,19 +1218,19 @@
         <v>20794</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12439</v>
+        <v>12944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31968</v>
+        <v>33211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01180855187483277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007063709606104112</v>
+        <v>0.007350655485046724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01815421155662303</v>
+        <v>0.01886039977834776</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>877683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>870850</v>
+        <v>870221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>881958</v>
+        <v>881921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9916028889836697</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9838832589855051</v>
+        <v>0.9831722543456225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9964334241782467</v>
+        <v>0.9963915335698494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -1268,19 +1268,19 @@
         <v>862435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>851673</v>
+        <v>852751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>869030</v>
+        <v>868868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9847437061900183</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9724556558311749</v>
+        <v>0.9736871594642911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992274517655421</v>
+        <v>0.9920896795209296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1633</v>
@@ -1289,19 +1289,19 @@
         <v>1740117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1728943</v>
+        <v>1727700</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1748472</v>
+        <v>1747967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881914481251672</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.981845788443377</v>
+        <v>0.9811396002216521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.992936290393896</v>
+        <v>0.9926493445149532</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11981</v>
+        <v>12118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008260878574633966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001960252929636164</v>
+        <v>0.001948617925437273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02381722076299032</v>
+        <v>0.02408936253843434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1414,19 +1414,19 @@
         <v>5530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2066</v>
+        <v>2158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11302</v>
+        <v>13127</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.012215265442009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004563860449000571</v>
+        <v>0.004765974664151576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0249628943051626</v>
+        <v>0.02899438333008326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1435,19 +1435,19 @@
         <v>9686</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4379</v>
+        <v>4428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20613</v>
+        <v>18149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01013404226984967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004582111471185207</v>
+        <v>0.00463268133810243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02156691501057638</v>
+        <v>0.01898961717183726</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>498868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491042</v>
+        <v>490905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>502037</v>
+        <v>502043</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.991739121425366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9761827792370096</v>
+        <v>0.9759106374615655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9980397470703639</v>
+        <v>0.9980513820745627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>407</v>
@@ -1485,19 +1485,19 @@
         <v>447206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441434</v>
+        <v>439609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450670</v>
+        <v>450578</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.987784734557991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9750371056948374</v>
+        <v>0.9710056166699168</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9954361395509995</v>
+        <v>0.9952340253358485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>865</v>
@@ -1506,19 +1506,19 @@
         <v>946072</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935145</v>
+        <v>937609</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>951379</v>
+        <v>951330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9898659577301503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9784330849894236</v>
+        <v>0.9810103828281628</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9954178885288147</v>
+        <v>0.9953673186618975</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>28765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19107</v>
+        <v>18598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44205</v>
+        <v>40898</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008437615718860397</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005604670655828587</v>
+        <v>0.005455396235572888</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01296670267141609</v>
+        <v>0.01199646282409893</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1631,19 +1631,19 @@
         <v>61621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47032</v>
+        <v>47390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79957</v>
+        <v>82949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01741529565493581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01329220836188782</v>
+        <v>0.01339325502801556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02259752868428601</v>
+        <v>0.02344296087636638</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -1652,19 +1652,19 @@
         <v>90386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71565</v>
+        <v>72406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114538</v>
+        <v>111325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01300992233325999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01030083035177762</v>
+        <v>0.01042191463206901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01648635046147848</v>
+        <v>0.01602383175678641</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3380380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3364940</v>
+        <v>3368247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3390038</v>
+        <v>3390547</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9915623842811396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9870332973285836</v>
+        <v>0.9880035371759012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9943953293441713</v>
+        <v>0.9945446037644275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3226</v>
@@ -1702,19 +1702,19 @@
         <v>3476707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3458371</v>
+        <v>3455379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3491296</v>
+        <v>3490938</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9825847043450642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.977402471315714</v>
+        <v>0.9765570391236336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9867077916381122</v>
+        <v>0.9866067449719845</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6394</v>
@@ -1723,19 +1723,19 @@
         <v>6857088</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6832936</v>
+        <v>6836149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6875909</v>
+        <v>6875068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98699007766674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9835136495385218</v>
+        <v>0.9839761682432138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9896991696482224</v>
+        <v>0.989578085367931</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>8409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3737</v>
+        <v>3893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16341</v>
+        <v>17474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007454364439940925</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003313337517371076</v>
+        <v>0.003451278262927793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01448711195101331</v>
+        <v>0.01549157183175195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2088,19 +2088,19 @@
         <v>20337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13008</v>
+        <v>12328</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31956</v>
+        <v>32236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01614645254220345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0103277904853344</v>
+        <v>0.009787302796692961</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02537092248847443</v>
+        <v>0.02559314381906151</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -2109,19 +2109,19 @@
         <v>28746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19165</v>
+        <v>19163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42756</v>
+        <v>41639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01203989207191925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008026912981842757</v>
+        <v>0.00802630740163268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01790768500322037</v>
+        <v>0.01743994539476337</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1119588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1111656</v>
+        <v>1110523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1124260</v>
+        <v>1124104</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.992545635560059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855128880489867</v>
+        <v>0.9845084281682481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966866624826289</v>
+        <v>0.9965487217370722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1170</v>
@@ -2159,19 +2159,19 @@
         <v>1239224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1227605</v>
+        <v>1227325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1246553</v>
+        <v>1247233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9838535474577965</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9746290775115254</v>
+        <v>0.9744068561809379</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9896722095146656</v>
+        <v>0.9902126972033068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2229</v>
@@ -2180,19 +2180,19 @@
         <v>2358812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2344802</v>
+        <v>2345919</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2368393</v>
+        <v>2368395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9879601079280808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9820923149967795</v>
+        <v>0.9825600546052369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9919730870181572</v>
+        <v>0.9919736925983675</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>6933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2940</v>
+        <v>3001</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13459</v>
+        <v>14217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007628099566030328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003235142532216053</v>
+        <v>0.003302419034016481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01480878676711193</v>
+        <v>0.0156429483076159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -2305,19 +2305,19 @@
         <v>16548</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9339</v>
+        <v>10015</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26275</v>
+        <v>26965</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01644117915338997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009278645308434544</v>
+        <v>0.009950735233542283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0261055084891119</v>
+        <v>0.02679199714803841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -2326,19 +2326,19 @@
         <v>23480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15176</v>
+        <v>15372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34189</v>
+        <v>35045</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01225930436017758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007923673284474117</v>
+        <v>0.00802566909955746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01785055312651867</v>
+        <v>0.0182974736587065</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>901892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895366</v>
+        <v>894608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905885</v>
+        <v>905824</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9923719004339697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851912132328877</v>
+        <v>0.9843570516923837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967648574677839</v>
+        <v>0.9966975809659835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>935</v>
@@ -2376,19 +2376,19 @@
         <v>989927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980200</v>
+        <v>979510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997136</v>
+        <v>996460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9835588208466101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.973894491510888</v>
+        <v>0.9732080028519615</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9907213546915654</v>
+        <v>0.9900492647664577</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1809</v>
@@ -2397,19 +2397,19 @@
         <v>1891820</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1881111</v>
+        <v>1880255</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1900124</v>
+        <v>1899928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9877406956398224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9821494468734813</v>
+        <v>0.9817025263412931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.992076326715526</v>
+        <v>0.9919743309004425</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>7388</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3013</v>
+        <v>3066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17069</v>
+        <v>16025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008968875051512653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003657858937747086</v>
+        <v>0.003722511171060439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02072132147311858</v>
+        <v>0.0194539826079021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2522,19 +2522,19 @@
         <v>11494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6113</v>
+        <v>5837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20674</v>
+        <v>19613</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0149071235559873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007927864587681566</v>
+        <v>0.007569864605388047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02681190747060208</v>
+        <v>0.02543671083180609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2543,19 +2543,19 @@
         <v>18882</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11418</v>
+        <v>11632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29641</v>
+        <v>29933</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01183988489765221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007159231204729321</v>
+        <v>0.00729392250774169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01858563873011504</v>
+        <v>0.01876881947262475</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>816371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>806690</v>
+        <v>807734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820746</v>
+        <v>820693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9910311249484873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9792786785268811</v>
+        <v>0.9805460173920979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963421410622529</v>
+        <v>0.9962774888289395</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>717</v>
@@ -2593,19 +2593,19 @@
         <v>759565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>750385</v>
+        <v>751446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764946</v>
+        <v>765222</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9850928764440127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.973188092529398</v>
+        <v>0.974563289168194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9920721354123184</v>
+        <v>0.992430135394612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1498</v>
@@ -2614,19 +2614,19 @@
         <v>1575936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1565177</v>
+        <v>1564885</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1583400</v>
+        <v>1583186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9881601151023478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.981414361269885</v>
+        <v>0.9812311805273756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928407687952708</v>
+        <v>0.9927060774922584</v>
       </c>
     </row>
     <row r="12">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10335</v>
+        <v>9342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005278380939009913</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02039648304833492</v>
+        <v>0.01843715024772527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2739,19 +2739,19 @@
         <v>6419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2195</v>
+        <v>2137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15827</v>
+        <v>14957</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01310706652342994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0044827248243956</v>
+        <v>0.004364521882447122</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03232049498417617</v>
+        <v>0.03054380332492238</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -2760,19 +2760,19 @@
         <v>9093</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4097</v>
+        <v>3881</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19818</v>
+        <v>18921</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009125926218675882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004111676300686935</v>
+        <v>0.003895524487062596</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01988935896138706</v>
+        <v>0.01898989089505904</v>
       </c>
     </row>
     <row r="14">
@@ -2789,7 +2789,7 @@
         <v>504026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496366</v>
+        <v>497359</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -2798,7 +2798,7 @@
         <v>0.9947216190609901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9796035169516653</v>
+        <v>0.9815628497522748</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2810,19 +2810,19 @@
         <v>483279</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>473871</v>
+        <v>474741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>487503</v>
+        <v>487561</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.98689293347657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9676795050158238</v>
+        <v>0.9694561966750777</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955172751756044</v>
+        <v>0.9956354781175529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>919</v>
@@ -2831,19 +2831,19 @@
         <v>987305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>976580</v>
+        <v>977477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>992301</v>
+        <v>992517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9908740737813241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9801106410386129</v>
+        <v>0.9810101091049409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995888323699313</v>
+        <v>0.9961044755129373</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>25404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15686</v>
+        <v>16120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37351</v>
+        <v>39082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007544322543092441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004658405833005238</v>
+        <v>0.004787379231902735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01109234638682042</v>
+        <v>0.0116064662043443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -2956,19 +2956,19 @@
         <v>54798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41272</v>
+        <v>41585</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71662</v>
+        <v>71934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01553758758438676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01170248127065119</v>
+        <v>0.01179111471925335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02031944290305391</v>
+        <v>0.02039657319956341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -2977,19 +2977,19 @@
         <v>80202</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63060</v>
+        <v>63852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99557</v>
+        <v>101109</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01163342625221281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009146986711620399</v>
+        <v>0.009261888238994105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01444093364175562</v>
+        <v>0.01466602611527053</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3341878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3329931</v>
+        <v>3328200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3351596</v>
+        <v>3351162</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9924556774569075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9889076536131794</v>
+        <v>0.9883935337956556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953415941669947</v>
+        <v>0.9952126207680972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3272</v>
@@ -3027,19 +3027,19 @@
         <v>3471994</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3455130</v>
+        <v>3454858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3485520</v>
+        <v>3485207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9844624124156133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9796805570969462</v>
+        <v>0.9796034268004367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9882975187293489</v>
+        <v>0.9882088852807467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6455</v>
@@ -3048,19 +3048,19 @@
         <v>6813873</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6794518</v>
+        <v>6792966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6831015</v>
+        <v>6830223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883665737477871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855590663582444</v>
+        <v>0.9853339738847295</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9908530132883796</v>
+        <v>0.9907381117610059</v>
       </c>
     </row>
     <row r="18">
